--- a/file/tmp.xlsx
+++ b/file/tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Project\CheckInvoice2\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94EA73-4278-4E2E-93DF-237561681D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A60B2-BF19-4C1E-9E83-BDF9E532FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5A28A5A-C1C4-47AC-BA65-8B7A6DAC0577}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>택배사</t>
   </si>
   <si>
-    <t>송장번호</t>
-  </si>
-  <si>
     <t>CJ대한통운</t>
   </si>
   <si>
@@ -388,6 +385,10 @@
   </si>
   <si>
     <t>한진택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 번호 - 없이 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,11 +775,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FE2BF9-B5DC-4740-887A-B643A027FE5E}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -786,12 +791,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -822,577 +828,577 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
